--- a/data/trans_orig/P36BPD11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>135277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102600</v>
+        <v>105035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166395</v>
+        <v>164361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3317305495208506</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2515979805968771</v>
+        <v>0.2575698285938952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4080386990184907</v>
+        <v>0.4030495605204976</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -762,19 +762,19 @@
         <v>141387</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117024</v>
+        <v>117670</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168985</v>
+        <v>166330</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3900214755371547</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3228131673318789</v>
+        <v>0.3245948796504114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.466148720732005</v>
+        <v>0.4588269820934341</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -783,19 +783,19 @@
         <v>276665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236958</v>
+        <v>237497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>315075</v>
+        <v>319598</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3591627454440928</v>
+        <v>0.3591627454440927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3076154777637729</v>
+        <v>0.308316185701306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.40902567026986</v>
+        <v>0.4148977210031075</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>179430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>148339</v>
+        <v>146781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214589</v>
+        <v>210740</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4400030441483169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3637612846244802</v>
+        <v>0.3599388250122396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5262210530484841</v>
+        <v>0.5167812912728105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -833,19 +833,19 @@
         <v>155402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129181</v>
+        <v>131316</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>182886</v>
+        <v>184444</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4286804572145813</v>
+        <v>0.4286804572145814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3563503127611806</v>
+        <v>0.3622392460620659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5044966459473988</v>
+        <v>0.5087928495631309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -854,19 +854,19 @@
         <v>334832</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>293822</v>
+        <v>296818</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>378733</v>
+        <v>379482</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4346745403081601</v>
+        <v>0.43467454030816</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3814361680424332</v>
+        <v>0.3853255154247623</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4916663085403488</v>
+        <v>0.4926392268915031</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>93085</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68603</v>
+        <v>68844</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122575</v>
+        <v>126330</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2282664063308326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1682292786421788</v>
+        <v>0.1688214301881488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3005821210109025</v>
+        <v>0.3097891359691777</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -904,19 +904,19 @@
         <v>65723</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47309</v>
+        <v>45443</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>90843</v>
+        <v>87864</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1812980672482638</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1305046113593082</v>
+        <v>0.1253571205787526</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2505927135694415</v>
+        <v>0.2423742670499355</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -925,19 +925,19 @@
         <v>158808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>126608</v>
+        <v>124265</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194454</v>
+        <v>194103</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2061627142477472</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1643615096844181</v>
+        <v>0.1613193437801747</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2524372178069489</v>
+        <v>0.2519825506688103</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>216266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187716</v>
+        <v>187816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246207</v>
+        <v>245775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4534932859361909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3936261729559069</v>
+        <v>0.3938345885909111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5162765792658522</v>
+        <v>0.5153701986541346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>190</v>
@@ -1050,19 +1050,19 @@
         <v>199909</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178127</v>
+        <v>177563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222286</v>
+        <v>225303</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.398954576289263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3554845501607678</v>
+        <v>0.3543580785953414</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4436117650681913</v>
+        <v>0.4496313527839299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>325</v>
@@ -1071,19 +1071,19 @@
         <v>416176</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>376264</v>
+        <v>379377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>450843</v>
+        <v>453241</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4255493496190789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3847386764178664</v>
+        <v>0.387921326779386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4609971731487106</v>
+        <v>0.4634492307558268</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>181073</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>154292</v>
+        <v>152429</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>209569</v>
+        <v>208545</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3796946744281977</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3235369233093242</v>
+        <v>0.3196305691482025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4394484729811923</v>
+        <v>0.4373029418264214</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>179</v>
@@ -1121,19 +1121,19 @@
         <v>195703</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173321</v>
+        <v>173218</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>218526</v>
+        <v>220102</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3905600574025129</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3458919443443225</v>
+        <v>0.3456880475476174</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4361077016314259</v>
+        <v>0.4392527779792843</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>297</v>
@@ -1142,19 +1142,19 @@
         <v>376776</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>339908</v>
+        <v>340725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>412573</v>
+        <v>411156</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3852617582822324</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.347563980948353</v>
+        <v>0.3483987720302087</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4218658213297595</v>
+        <v>0.4204162651393428</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>79551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58303</v>
+        <v>59296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103208</v>
+        <v>103939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1668120396356114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1222563131146241</v>
+        <v>0.1243389642137033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2164181306660341</v>
+        <v>0.2179507082355771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1192,19 +1192,19 @@
         <v>105471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87730</v>
+        <v>85609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126440</v>
+        <v>125416</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.210485366308224</v>
+        <v>0.2104853663082241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1750813012276968</v>
+        <v>0.1708488792517305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2523328070494425</v>
+        <v>0.2502893462807033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1213,19 +1213,19 @@
         <v>185022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156602</v>
+        <v>158520</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216160</v>
+        <v>217409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1891888920986887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1601289328614975</v>
+        <v>0.1620908010172192</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2210281256532342</v>
+        <v>0.2223060130846302</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>270420</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>241735</v>
+        <v>243228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>297036</v>
+        <v>296708</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4355729790646453</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3893697638823672</v>
+        <v>0.3917748048478196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4784444502792572</v>
+        <v>0.4779156985485539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>407</v>
@@ -1338,19 +1338,19 @@
         <v>292363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>270538</v>
+        <v>270068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>313310</v>
+        <v>313566</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4721503108958283</v>
+        <v>0.4721503108958282</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.436905530759946</v>
+        <v>0.4361452974551303</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5059793235704715</v>
+        <v>0.5063932938604031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>648</v>
@@ -1359,19 +1359,19 @@
         <v>562782</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>530507</v>
+        <v>526975</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>595477</v>
+        <v>595551</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.453837732535446</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4278101754915246</v>
+        <v>0.4249616164758551</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4802031037112944</v>
+        <v>0.4802632119125745</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>237903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211541</v>
+        <v>212902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264756</v>
+        <v>263962</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3831964083521749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3407345500414374</v>
+        <v>0.3429269634422842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.426450480995586</v>
+        <v>0.4251704713153963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>320</v>
@@ -1409,19 +1409,19 @@
         <v>239119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219263</v>
+        <v>219309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>261488</v>
+        <v>261178</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3861647861169753</v>
+        <v>0.3861647861169752</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.354097986979565</v>
+        <v>0.3541725293835881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4222899763456522</v>
+        <v>0.4217886370605765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>526</v>
@@ -1430,19 +1430,19 @@
         <v>477022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443517</v>
+        <v>445354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>509822</v>
+        <v>513549</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3846786566564666</v>
+        <v>0.3846786566564665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3576596876500524</v>
+        <v>0.3591417932026149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4111292728442426</v>
+        <v>0.4141353968645064</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>112515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93999</v>
+        <v>91977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134758</v>
+        <v>133207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1812306125831799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1514071303031441</v>
+        <v>0.1481497955144928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2170589816806667</v>
+        <v>0.2145609048306678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -1480,19 +1480,19 @@
         <v>87733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73803</v>
+        <v>73563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104012</v>
+        <v>103575</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1416849029871966</v>
+        <v>0.1416849029871965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1191884956446962</v>
+        <v>0.1188005992986419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1679743113978617</v>
+        <v>0.1672682759132513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -1501,19 +1501,19 @@
         <v>200248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172783</v>
+        <v>177136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>223828</v>
+        <v>227247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1614836108080875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.139334911510476</v>
+        <v>0.142845250080791</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1804987904476028</v>
+        <v>0.1832558907223195</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>336368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>308029</v>
+        <v>311820</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>361880</v>
+        <v>366206</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.480102503958152</v>
+        <v>0.4801025039581518</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4396538005521903</v>
+        <v>0.4450647104954314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5165166426545245</v>
+        <v>0.5226910405511112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>575</v>
@@ -1626,19 +1626,19 @@
         <v>366979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>346733</v>
+        <v>345352</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>389333</v>
+        <v>389195</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4982782515662851</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4707878743621077</v>
+        <v>0.4689134521515811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5286290753673268</v>
+        <v>0.5284422807483302</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>900</v>
@@ -1647,19 +1647,19 @@
         <v>703347</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>669264</v>
+        <v>670664</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>741779</v>
+        <v>739358</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4894172586667443</v>
+        <v>0.4894172586667444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4657006110040666</v>
+        <v>0.4666750610860019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5161597531368521</v>
+        <v>0.514474859633499</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>238827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>214819</v>
+        <v>211731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>267191</v>
+        <v>264666</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3408813816778384</v>
+        <v>0.3408813816778383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3066138239162978</v>
+        <v>0.3022067174484666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3813658429514356</v>
+        <v>0.3777607085741717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>392</v>
@@ -1697,19 +1697,19 @@
         <v>257447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>237237</v>
+        <v>236083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>278331</v>
+        <v>278940</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3495572273376791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3221156138640665</v>
+        <v>0.3205493261969178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3779126106804681</v>
+        <v>0.3787404074698111</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -1718,19 +1718,19 @@
         <v>496274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>462212</v>
+        <v>463185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>527275</v>
+        <v>531917</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3453276017703126</v>
+        <v>0.3453276017703127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3216254166366453</v>
+        <v>0.3223027120092092</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3668993212082274</v>
+        <v>0.3701291556717372</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>125422</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105107</v>
+        <v>107160</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147307</v>
+        <v>145945</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1790161143640098</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1500204221449514</v>
+        <v>0.1529502947972173</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2102534904437099</v>
+        <v>0.2083097695749947</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -1768,19 +1768,19 @@
         <v>112068</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98279</v>
+        <v>96799</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128977</v>
+        <v>128272</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1521645210960358</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1334419194575992</v>
+        <v>0.1314316022207162</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1751231377777375</v>
+        <v>0.1741650675241135</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>292</v>
@@ -1789,19 +1789,19 @@
         <v>237490</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>209256</v>
+        <v>213355</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>265427</v>
+        <v>266381</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.165255139562943</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.145608928975923</v>
+        <v>0.1484610833468614</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1846946169264664</v>
+        <v>0.1853586143647978</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>279779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255230</v>
+        <v>255936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>302285</v>
+        <v>303307</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4611893650066967</v>
+        <v>0.4611893650066966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4207230764921721</v>
+        <v>0.4218867730608913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4982886384030752</v>
+        <v>0.499972935154544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>553</v>
@@ -1914,19 +1914,19 @@
         <v>330810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>312113</v>
+        <v>310783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>349730</v>
+        <v>351537</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5446265236583008</v>
+        <v>0.5446265236583009</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5138443995440127</v>
+        <v>0.5116557123329757</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5757757309198483</v>
+        <v>0.5787503866758894</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>860</v>
@@ -1935,19 +1935,19 @@
         <v>610589</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>580678</v>
+        <v>579544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>641420</v>
+        <v>642527</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5029340755637969</v>
+        <v>0.5029340755637968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4782970421150777</v>
+        <v>0.4773623629327032</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5283289553668188</v>
+        <v>0.5292407547980575</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>209528</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>186666</v>
+        <v>185971</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>232280</v>
+        <v>231435</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3453872237435609</v>
+        <v>0.3453872237435608</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3077017650550087</v>
+        <v>0.3065563007424266</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3828909366391266</v>
+        <v>0.3814980917751546</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>320</v>
@@ -1985,19 +1985,19 @@
         <v>198342</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>181384</v>
+        <v>179104</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>216095</v>
+        <v>217649</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3265383015633906</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2986199803135556</v>
+        <v>0.2948673617205748</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3557656962268975</v>
+        <v>0.358324755642933</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>547</v>
@@ -2006,19 +2006,19 @@
         <v>407870</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>378804</v>
+        <v>376822</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>437830</v>
+        <v>436207</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3359568594617423</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3120158377964714</v>
+        <v>0.310383476592181</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3606350988150658</v>
+        <v>0.3592979034298063</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>117340</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99091</v>
+        <v>98893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136338</v>
+        <v>136511</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1934234112497427</v>
+        <v>0.1934234112497426</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1633418725806967</v>
+        <v>0.1630156054850815</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2247399430211838</v>
+        <v>0.2250259995733625</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2056,19 +2056,19 @@
         <v>78255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65674</v>
+        <v>66382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90842</v>
+        <v>91854</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1288351747783085</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1081212850262531</v>
+        <v>0.1092882953210972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1495577028129292</v>
+        <v>0.1512227420592117</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>254</v>
@@ -2077,19 +2077,19 @@
         <v>195595</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>172261</v>
+        <v>174782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>219125</v>
+        <v>220252</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1611090649744608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1418886891158197</v>
+        <v>0.1439657886587951</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1804903500373759</v>
+        <v>0.1814185507191427</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>212620</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>196664</v>
+        <v>195465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>229800</v>
+        <v>229910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5243408995620779</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4849922368845216</v>
+        <v>0.4820363187173583</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5667103351681326</v>
+        <v>0.5669805529134831</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>445</v>
@@ -2202,19 +2202,19 @@
         <v>235270</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>221652</v>
+        <v>220535</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>250271</v>
+        <v>251722</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5361519986967691</v>
+        <v>0.536151998696769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5051162875331289</v>
+        <v>0.5025706936011946</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5703360795890955</v>
+        <v>0.5736438912737949</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>747</v>
@@ -2223,19 +2223,19 @@
         <v>447890</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>425289</v>
+        <v>424885</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>469672</v>
+        <v>470583</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5304794638293873</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5037113011038096</v>
+        <v>0.5032329414612629</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5562788946583851</v>
+        <v>0.5573569469774684</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>137629</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>121855</v>
+        <v>120066</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>152552</v>
+        <v>152638</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3394077239373898</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3005056400126811</v>
+        <v>0.2960949018455383</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3762069366781448</v>
+        <v>0.3764199530991096</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>265</v>
@@ -2273,19 +2273,19 @@
         <v>144079</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130593</v>
+        <v>129094</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>158889</v>
+        <v>158456</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3283373908150605</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2976057519899351</v>
+        <v>0.2941888477406963</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3620891766666604</v>
+        <v>0.3611013652569578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>456</v>
@@ -2294,19 +2294,19 @@
         <v>281708</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>261320</v>
+        <v>259913</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303789</v>
+        <v>303375</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.33365415684283</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3095072949770866</v>
+        <v>0.3078399902654642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3598068447161562</v>
+        <v>0.3593168946876923</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>55250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43972</v>
+        <v>44072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67494</v>
+        <v>68995</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1362513765005323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1084404025807662</v>
+        <v>0.1086868912753965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1664455753478603</v>
+        <v>0.1701476445567239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -2344,19 +2344,19 @@
         <v>59464</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49926</v>
+        <v>49064</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70965</v>
+        <v>70095</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1355106104881705</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.11377621761594</v>
+        <v>0.1118106515942617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1617205741040949</v>
+        <v>0.1597371960241767</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -2365,19 +2365,19 @@
         <v>114713</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100600</v>
+        <v>100994</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>132333</v>
+        <v>130937</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1358663793277827</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1191506275922065</v>
+        <v>0.1196174652806334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1567348847465565</v>
+        <v>0.1550811586819243</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>170477</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>154380</v>
+        <v>157168</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>184537</v>
+        <v>184594</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5495760220553749</v>
+        <v>0.5495760220553748</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4976808365176608</v>
+        <v>0.5066714388903416</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5949022830038265</v>
+        <v>0.5950854017684245</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>494</v>
@@ -2490,19 +2490,19 @@
         <v>252797</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>235917</v>
+        <v>237155</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>267112</v>
+        <v>267827</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5450404998068233</v>
+        <v>0.5450404998068232</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5086461902604705</v>
+        <v>0.5113149549052831</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5759034029940988</v>
+        <v>0.5774447026721029</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>749</v>
@@ -2511,19 +2511,19 @@
         <v>423275</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>403705</v>
+        <v>404335</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>445092</v>
+        <v>445311</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5468581851162884</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5215736380496967</v>
+        <v>0.5223883862350902</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5750443867455794</v>
+        <v>0.5753278257666459</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>96921</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>84327</v>
+        <v>83291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>110483</v>
+        <v>111563</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3124476464502313</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2718501891234625</v>
+        <v>0.2685075900613786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.356168424094587</v>
+        <v>0.3596494751942154</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>278</v>
@@ -2561,19 +2561,19 @@
         <v>152895</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>138883</v>
+        <v>139961</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>169409</v>
+        <v>168693</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3296475203513431</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2994375236924655</v>
+        <v>0.3017620994487222</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3652530456498748</v>
+        <v>0.3637073904826508</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>419</v>
@@ -2582,19 +2582,19 @@
         <v>249816</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>231813</v>
+        <v>229062</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>269954</v>
+        <v>269824</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3227543873445137</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2994955263151847</v>
+        <v>0.2959404517552261</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3487718907544622</v>
+        <v>0.3486036725585386</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>42800</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32758</v>
+        <v>33916</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54084</v>
+        <v>53539</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1379763314943936</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1056022949342682</v>
+        <v>0.1093372097302854</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1743527599649102</v>
+        <v>0.1725961497384867</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>107</v>
@@ -2632,19 +2632,19 @@
         <v>58121</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47682</v>
+        <v>48661</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>69359</v>
+        <v>69205</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1253119798418335</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1028033029156921</v>
+        <v>0.1049146172195905</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.14954002873707</v>
+        <v>0.1492076767744155</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>169</v>
@@ -2653,19 +2653,19 @@
         <v>100922</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>87469</v>
+        <v>86596</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>115554</v>
+        <v>115478</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.130387427539198</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1130075329024658</v>
+        <v>0.111878706017299</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1492916597081631</v>
+        <v>0.1491943720142236</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>1621208</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1558061</v>
+        <v>1556062</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1688971</v>
+        <v>1683560</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4594633867104114</v>
+        <v>0.4594633867104115</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4415670609882979</v>
+        <v>0.4410004221160859</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4786677613502873</v>
+        <v>0.4771342246024345</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2746</v>
@@ -2778,19 +2778,19 @@
         <v>1819517</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1759433</v>
+        <v>1767644</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1868857</v>
+        <v>1875166</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4878925357679872</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4717813950198244</v>
+        <v>0.4739829855512667</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5011227919563419</v>
+        <v>0.502814570166445</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4369</v>
@@ -2799,19 +2799,19 @@
         <v>3440725</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3354135</v>
+        <v>3348330</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3528603</v>
+        <v>3524481</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4740713463199503</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4621407705205166</v>
+        <v>0.4613409366880113</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4861793177345646</v>
+        <v>0.48561139012939</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>1281311</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1217456</v>
+        <v>1220104</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1352996</v>
+        <v>1343172</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3631338274959132</v>
+        <v>0.3631338274959131</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3450368116149377</v>
+        <v>0.3457870894154876</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3834498096738222</v>
+        <v>0.3806656428307114</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1846</v>
@@ -2849,19 +2849,19 @@
         <v>1342987</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1290496</v>
+        <v>1291124</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1396561</v>
+        <v>1394248</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3601138176604679</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.346038637315122</v>
+        <v>0.3462071691617399</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3744793199947098</v>
+        <v>0.3738592200522462</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3027</v>
@@ -2870,19 +2870,19 @@
         <v>2624298</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2548890</v>
+        <v>2546014</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2701534</v>
+        <v>2711763</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3615820335393917</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3511920698954137</v>
+        <v>0.3507959248502359</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3722237269932019</v>
+        <v>0.3736332237795257</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>625963</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>568923</v>
+        <v>578183</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>676598</v>
+        <v>679957</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1774027857936755</v>
+        <v>0.1774027857936754</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1612372208380831</v>
+        <v>0.1638616651073452</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1917531733694846</v>
+        <v>0.1927052245457189</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>762</v>
@@ -2920,19 +2920,19 @@
         <v>566836</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>529281</v>
+        <v>526184</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>608549</v>
+        <v>608268</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1519936465715449</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.141923540418961</v>
+        <v>0.1410930161908024</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1631787909561012</v>
+        <v>0.1631034854950162</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1330</v>
@@ -2941,19 +2941,19 @@
         <v>1192799</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1134240</v>
+        <v>1124071</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1259138</v>
+        <v>1259664</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1643466201406581</v>
+        <v>0.164346620140658</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1562783480933933</v>
+        <v>0.1548771916681259</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1734870139124502</v>
+        <v>0.1735595368507179</v>
       </c>
     </row>
     <row r="35">
